--- a/data/trans_bre/P16-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>17.27787416381551</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12.4721418392167</v>
+        <v>12.47214183921669</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3650690306145418</v>
@@ -649,7 +649,7 @@
         <v>0.3435068562216689</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2328054099940534</v>
+        <v>0.2328054099940532</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.38512814101045</v>
+        <v>12.12272335527602</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>18.61066332203501</v>
+        <v>18.38822800670811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13.03789061927018</v>
+        <v>13.70416247822607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.46349252670254</v>
+        <v>5.514298186627826</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2364604540712237</v>
+        <v>0.2237872403871922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3465057927844206</v>
+        <v>0.3421489756804189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2471750528700596</v>
+        <v>0.2608160914157768</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.106953125875211</v>
+        <v>0.0934396336916897</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>22.94937847828999</v>
+        <v>23.17695383868979</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.82783270735035</v>
+        <v>26.59535610451465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.30289572942173</v>
+        <v>21.51683432445604</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.30024016632668</v>
+        <v>18.57961704418102</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5095932647315053</v>
+        <v>0.5082553763376213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5555997959610669</v>
+        <v>0.5531939086377535</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4495061092207442</v>
+        <v>0.4500096900340779</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3629346665918747</v>
+        <v>0.3762051438595678</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>14.78672589764633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12.9200677967665</v>
+        <v>12.92006779676651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4807927046908445</v>
@@ -749,7 +749,7 @@
         <v>0.2992229253975203</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2601606832324781</v>
+        <v>0.2601606832324783</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>14.45238641503709</v>
+        <v>14.11176589865639</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>19.08196491160191</v>
+        <v>19.15417437577207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.11395913627032</v>
+        <v>9.897683718495138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.772405044186533</v>
+        <v>8.347191861809101</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3547596307980161</v>
+        <v>0.3445739484385331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3796435254331139</v>
+        <v>0.3818757985425729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1938995765544791</v>
+        <v>0.1901676425491425</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1657927317060762</v>
+        <v>0.1616972408870264</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>22.67320158073786</v>
+        <v>22.88313404602524</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>27.95877356083092</v>
+        <v>27.45741408290042</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.04767525255196</v>
+        <v>19.20567262907862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.59808640811988</v>
+        <v>17.52883944955965</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6329201784449625</v>
+        <v>0.6353067632104933</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6176630955927396</v>
+        <v>0.6066313652475696</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4049401316061603</v>
+        <v>0.4084073092107016</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3729006141368623</v>
+        <v>0.3750862390545333</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>17.07108264612401</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10.77758001258485</v>
+        <v>10.77758001258484</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3856653161956851</v>
@@ -849,7 +849,7 @@
         <v>0.3519581475199922</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2090890306885586</v>
+        <v>0.2090890306885584</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10.48197753056188</v>
+        <v>10.21446085815776</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.26578604119391</v>
+        <v>10.28451909394409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.9832682532451</v>
+        <v>12.34561382498979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.053022516419483</v>
+        <v>5.951463526223458</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2559129275941145</v>
+        <v>0.2500341891681508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1845919529571177</v>
+        <v>0.1832061307468037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2389042059495316</v>
+        <v>0.2386968580146432</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1107510269187973</v>
+        <v>0.107897006466475</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.11591320082569</v>
+        <v>19.16408889922809</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.73303748545097</v>
+        <v>19.59232582331905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.81559560202452</v>
+        <v>22.17223585459148</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.82518170148888</v>
+        <v>14.68361450624804</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5274514852802874</v>
+        <v>0.5303950120343902</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3938911728903958</v>
+        <v>0.3903101962960109</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.478161378733638</v>
+        <v>0.4829240754485238</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.30246165794971</v>
+        <v>0.2977265214746824</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.083195975773959</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.418596598667582</v>
+        <v>8.418596598667548</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4309262147286475</v>
@@ -949,7 +949,7 @@
         <v>0.1398652532764434</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1527393914034118</v>
+        <v>0.1527393914034111</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.001574399378871</v>
+        <v>8.806323997131235</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.935693742887586</v>
+        <v>8.18778025340993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4039616291164403</v>
+        <v>0.7446078104553601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.930776307299439</v>
+        <v>3.726115515858511</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2014411064505059</v>
+        <v>0.2120023639393113</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1498551876154914</v>
+        <v>0.1522807919718344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008611725647583798</v>
+        <v>0.01396468833767705</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06679740903144127</v>
+        <v>0.06496935250366348</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.40645212059444</v>
+        <v>23.17431173968362</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.54439229857219</v>
+        <v>20.70951110043062</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.36502354694417</v>
+        <v>13.79596807279791</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.91473328990825</v>
+        <v>13.31798829057349</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6532545673938853</v>
+        <v>0.6724801669121665</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4419333282933834</v>
+        <v>0.4474102153236281</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.287740261916625</v>
+        <v>0.2934916295434766</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2432786762990441</v>
+        <v>0.2583336745166853</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>15.13524297068362</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11.00981211140877</v>
+        <v>11.00981211140876</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.448460245316551</v>
@@ -1049,7 +1049,7 @@
         <v>0.3046961247413734</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2104410328655645</v>
+        <v>0.2104410328655642</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.43619570396905</v>
+        <v>15.65169291831929</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.36957210387341</v>
+        <v>17.47660712481041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.79091333827052</v>
+        <v>12.74606972453583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.622048362404641</v>
+        <v>8.751378344619713</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3716215397685035</v>
+        <v>0.3768666492148444</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.336387713097148</v>
+        <v>0.3370464324641609</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2515824076052711</v>
+        <v>0.2503010009767904</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1613786285567167</v>
+        <v>0.1622546875814028</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.26337302333015</v>
+        <v>20.66141326273364</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.09572167214157</v>
+        <v>22.24138130243553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.45292962396385</v>
+        <v>17.63746591229055</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.43901439556955</v>
+        <v>13.46988671808559</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5210515723685897</v>
+        <v>0.5390138121165382</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4503470080247499</v>
+        <v>0.4540540135779756</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.362261163281</v>
+        <v>0.3646613601627811</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2637384411403621</v>
+        <v>0.2656659673344582</v>
       </c>
     </row>
     <row r="19">
